--- a/Projeto/working/dados.xlsx
+++ b/Projeto/working/dados.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10113"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paiva/Documents/Universidade/Engenharia Informática/2º Ano/2º Semestre/Base de Dados/bd/Aulas Práticas/Projeto/working/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/hacker/Desktop/UA/BD/bd/Projeto/working/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E6E86ACC-92F9-1943-8BC4-9C26ECEB7503}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBA8D81D-1B97-1647-82CA-4F3BF9F7F869}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="20460" activeTab="10" xr2:uid="{2AE14976-DDCE-6441-9BEC-2FCE017ACED9}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19500" firstSheet="2" activeTab="6" xr2:uid="{2AE14976-DDCE-6441-9BEC-2FCE017ACED9}"/>
   </bookViews>
   <sheets>
     <sheet name="Cupao" sheetId="3" r:id="rId1"/>
@@ -23,15 +23,17 @@
     <sheet name="Cosmética" sheetId="5" r:id="rId8"/>
     <sheet name="Perfume" sheetId="6" r:id="rId9"/>
     <sheet name="Compra" sheetId="8" r:id="rId10"/>
-    <sheet name="CompraTemProduto" sheetId="17" r:id="rId11"/>
-    <sheet name="Utilizador" sheetId="9" r:id="rId12"/>
-    <sheet name="Cliente" sheetId="10" r:id="rId13"/>
-    <sheet name="Funcionário" sheetId="11" r:id="rId14"/>
-    <sheet name="Serviço" sheetId="12" r:id="rId15"/>
-    <sheet name="Marcação" sheetId="13" r:id="rId16"/>
+    <sheet name="Presencial" sheetId="19" r:id="rId11"/>
+    <sheet name="Online" sheetId="20" r:id="rId12"/>
+    <sheet name="CompraTemProduto" sheetId="17" r:id="rId13"/>
+    <sheet name="Utilizador" sheetId="9" r:id="rId14"/>
+    <sheet name="Cliente" sheetId="10" r:id="rId15"/>
+    <sheet name="Funcionário" sheetId="11" r:id="rId16"/>
+    <sheet name="Serviço" sheetId="12" r:id="rId17"/>
+    <sheet name="FuncFazServiço" sheetId="18" r:id="rId18"/>
+    <sheet name="Marcação" sheetId="13" r:id="rId19"/>
   </sheets>
   <calcPr calcId="181029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -49,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="654" uniqueCount="402">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="740" uniqueCount="415">
   <si>
     <t>id</t>
   </si>
@@ -1255,13 +1257,52 @@
   </si>
   <si>
     <t>Unidades</t>
+  </si>
+  <si>
+    <t>duracaoMedia</t>
+  </si>
+  <si>
+    <t>funcEmail</t>
+  </si>
+  <si>
+    <t>rating</t>
+  </si>
+  <si>
+    <t>observaçoes</t>
+  </si>
+  <si>
+    <t>rastreamento</t>
+  </si>
+  <si>
+    <t>presente</t>
+  </si>
+  <si>
+    <t>contactoID</t>
+  </si>
+  <si>
+    <t>Muito bom produto!</t>
+  </si>
+  <si>
+    <t>Bom produto e rápida entrega</t>
+  </si>
+  <si>
+    <t>Poderia ter sido mais rapido a ser entregue</t>
+  </si>
+  <si>
+    <t>hWvk5n2S5YBwS08wHRO9</t>
+  </si>
+  <si>
+    <t>8cfd8bwW2hR4cAxxkDTC</t>
+  </si>
+  <si>
+    <t>pbFcSarhTbZqz5wTk7mk</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1295,6 +1336,12 @@
       <color theme="1"/>
       <name val="Calibri (Body)"/>
     </font>
+    <font>
+      <sz val="13"/>
+      <color rgb="FF000000"/>
+      <name val="Courier New"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1317,7 +1364,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
@@ -1343,9 +1390,11 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="22" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hiperligação" xfId="1" builtinId="8"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1362,7 +1411,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1850,7 +1899,7 @@
   <dimension ref="A1:G16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A16"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2193,10 +2242,264 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{49D8A57E-9393-F147-92A2-7A71470A8229}">
+  <dimension ref="A1:B7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C13" sqref="C13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="2" max="2" width="27.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2">
+      <c r="A1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B1" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="7" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3">
+        <v>4</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4">
+        <v>5</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5">
+        <v>9</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6">
+        <v>12</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2">
+      <c r="A7">
+        <v>13</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>318</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B2" r:id="rId1" xr:uid="{0A736C97-B581-B64D-85E5-48652D9750FC}"/>
+    <hyperlink ref="B4" r:id="rId2" xr:uid="{0E390086-555B-B94C-A4B9-6BF089C7573D}"/>
+    <hyperlink ref="B5" r:id="rId3" xr:uid="{4E82F809-3F92-7447-97AA-3F616898E996}"/>
+    <hyperlink ref="B3" r:id="rId4" xr:uid="{8BEABF70-B29C-C543-8FC8-CF4BBA09DF08}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{9F6D8B08-F87D-1647-9D74-5C767BAB3BBF}"/>
+    <hyperlink ref="B7" r:id="rId6" xr:uid="{A3EDF335-CFFC-FE4A-8EA7-AD48CCC09D8F}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A1D32298-08D2-5744-A359-D0D0D1BC1871}">
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F13" sqref="F13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="14.1640625" customWidth="1"/>
+    <col min="3" max="3" width="39.6640625" customWidth="1"/>
+    <col min="4" max="4" width="32.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" t="s">
+        <v>228</v>
+      </c>
+      <c r="B1" t="s">
+        <v>404</v>
+      </c>
+      <c r="C1" t="s">
+        <v>405</v>
+      </c>
+      <c r="D1" t="s">
+        <v>406</v>
+      </c>
+      <c r="E1" t="s">
+        <v>407</v>
+      </c>
+      <c r="F1" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="18">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>4</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>412</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="18">
+      <c r="A4">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="D4" s="12" t="s">
+        <v>413</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>409</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>411</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7">
+        <v>10</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8">
+        <v>11</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="18">
+      <c r="A9">
+        <v>14</v>
+      </c>
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9" t="s">
+        <v>410</v>
+      </c>
+      <c r="D9" s="12" t="s">
+        <v>414</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10">
+        <v>15</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FBABDCBA-3D10-8A4F-BB04-988FC3FBF4BE}">
   <dimension ref="A1:C21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
@@ -2441,12 +2744,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8AF85F82-A4D9-A940-ADAE-CD03F7BD19F3}">
   <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I30" sqref="I30"/>
+      <selection activeCell="G33" sqref="G33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -2689,7 +2992,7 @@
         <v>295</v>
       </c>
       <c r="I8" s="3">
-        <v>2</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="1:9">
@@ -3235,7 +3538,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10C5BFFC-CC4E-934C-BDA9-34E72C4908BD}">
   <dimension ref="A1:D18"/>
   <sheetViews>
@@ -3525,12 +3828,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1EB199FB-4085-7A4D-933D-5B11F2AC9371}">
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G33" sqref="G33"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -3606,7 +3909,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7A3F6A38-D1AE-A74B-BE47-CADD5261F43E}">
   <dimension ref="A1:C20"/>
   <sheetViews>
@@ -3844,7 +4147,528 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2D9E59B-00B6-9C4C-80BF-EC6AB2822740}">
+  <dimension ref="A1:C45"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <cols>
+    <col min="1" max="1" width="36.83203125" customWidth="1"/>
+    <col min="3" max="3" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2" s="11">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3" s="11">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4" s="11">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="B5">
+        <v>7</v>
+      </c>
+      <c r="C5" s="11">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="B6">
+        <v>8</v>
+      </c>
+      <c r="C6" s="11">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="B7">
+        <v>9</v>
+      </c>
+      <c r="C7" s="11">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="B8">
+        <v>11</v>
+      </c>
+      <c r="C8" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="B9">
+        <v>19</v>
+      </c>
+      <c r="C9" s="11">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10" s="11">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11" s="11">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="B12">
+        <v>3</v>
+      </c>
+      <c r="C12" s="11">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="B13">
+        <v>5</v>
+      </c>
+      <c r="C13" s="11">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="B14">
+        <v>6</v>
+      </c>
+      <c r="C14" s="11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="B15">
+        <v>10</v>
+      </c>
+      <c r="C15" s="11">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="B16">
+        <v>12</v>
+      </c>
+      <c r="C16" s="11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="B17">
+        <v>13</v>
+      </c>
+      <c r="C17" s="11">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="B18">
+        <v>15</v>
+      </c>
+      <c r="C18" s="11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="C19" s="11">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="B20">
+        <v>19</v>
+      </c>
+      <c r="C20" s="11">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="B21">
+        <v>14</v>
+      </c>
+      <c r="C21" s="11">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="B22">
+        <v>16</v>
+      </c>
+      <c r="C22" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="B23">
+        <v>17</v>
+      </c>
+      <c r="C23" s="11">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="B24">
+        <v>18</v>
+      </c>
+      <c r="C24" s="11">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="7" t="s">
+        <v>318</v>
+      </c>
+      <c r="B25">
+        <v>19</v>
+      </c>
+      <c r="C25" s="11">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="B26">
+        <v>1</v>
+      </c>
+      <c r="C26" s="11">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="B27">
+        <v>2</v>
+      </c>
+      <c r="C27" s="11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="B28">
+        <v>3</v>
+      </c>
+      <c r="C28" s="11">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="B29">
+        <v>4</v>
+      </c>
+      <c r="C29" s="11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="B30">
+        <v>5</v>
+      </c>
+      <c r="C30" s="11">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="B31">
+        <v>6</v>
+      </c>
+      <c r="C31" s="11">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="B32">
+        <v>7</v>
+      </c>
+      <c r="C32" s="11">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="B33">
+        <v>8</v>
+      </c>
+      <c r="C33" s="11">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="B34">
+        <v>9</v>
+      </c>
+      <c r="C34" s="11">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="B35">
+        <v>10</v>
+      </c>
+      <c r="C35" s="11">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="B36">
+        <v>11</v>
+      </c>
+      <c r="C36" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="B37">
+        <v>12</v>
+      </c>
+      <c r="C37" s="11">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="B38">
+        <v>13</v>
+      </c>
+      <c r="C38" s="11">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="B39">
+        <v>14</v>
+      </c>
+      <c r="C39" s="11">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="B40">
+        <v>15</v>
+      </c>
+      <c r="C40" s="11">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="B41">
+        <v>16</v>
+      </c>
+      <c r="C41" s="11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="B42">
+        <v>17</v>
+      </c>
+      <c r="C42" s="11">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="B43">
+        <v>18</v>
+      </c>
+      <c r="C43" s="11">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="4" t="s">
+        <v>272</v>
+      </c>
+      <c r="B44">
+        <v>19</v>
+      </c>
+      <c r="C44" s="11">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="4"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" r:id="rId1" xr:uid="{27F63348-A4B8-E941-9A7E-4CE572639558}"/>
+    <hyperlink ref="A21" r:id="rId2" xr:uid="{FC2F0C70-52E9-5A41-B2EA-9FCD821773AF}"/>
+    <hyperlink ref="A3" r:id="rId3" xr:uid="{309DC99D-6C7E-B248-B187-2FAAE806FAEE}"/>
+    <hyperlink ref="A4" r:id="rId4" xr:uid="{282FA9D4-85F1-684F-AA76-2BF8A462D31E}"/>
+    <hyperlink ref="A5" r:id="rId5" xr:uid="{F2A21DFC-FB90-214C-91E9-24DA7E29FD9E}"/>
+    <hyperlink ref="A6" r:id="rId6" xr:uid="{61D1B67E-968B-1D46-8445-1146133ADCC3}"/>
+    <hyperlink ref="A7" r:id="rId7" xr:uid="{597BD3A9-8889-FD46-B5DA-8C274A6521A2}"/>
+    <hyperlink ref="A8" r:id="rId8" xr:uid="{CAAB4E3E-5C02-8548-9F90-3C4141852B54}"/>
+    <hyperlink ref="A9" r:id="rId9" xr:uid="{6440A4C3-0D91-214A-99C4-8F7765DB3CF2}"/>
+    <hyperlink ref="A26" r:id="rId10" xr:uid="{97823F81-4721-6843-AF5E-649C89D3B34E}"/>
+    <hyperlink ref="A10:A20" r:id="rId11" display="Criscosta@outlook.com" xr:uid="{F5A86CC1-6222-914B-8023-32DFAB595232}"/>
+    <hyperlink ref="A27" r:id="rId12" xr:uid="{8B365289-29DD-8949-83F2-C066C16D2D81}"/>
+    <hyperlink ref="A28" r:id="rId13" xr:uid="{7D1471BB-F3E3-5844-A720-D4741D5EFB05}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E7FF5065-48C3-0D4F-B471-7BBBFE3C553D}">
   <dimension ref="A1:E8"/>
   <sheetViews>
@@ -5588,13 +6412,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9452136D-12A1-A84C-959A-D16ED4D29668}">
   <dimension ref="A1:I21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <cols>
-    <col min="2" max="2" width="21.5" customWidth="1"/>
+    <col min="2" max="2" width="35.1640625" customWidth="1"/>
     <col min="3" max="3" width="13.83203125" customWidth="1"/>
     <col min="4" max="4" width="17.5" customWidth="1"/>
     <col min="5" max="5" width="18.6640625" customWidth="1"/>
@@ -5637,6 +6461,9 @@
       <c r="A2">
         <v>1</v>
       </c>
+      <c r="B2" s="4" t="s">
+        <v>300</v>
+      </c>
       <c r="C2">
         <v>914363252</v>
       </c>
@@ -5660,6 +6487,9 @@
       <c r="A3">
         <v>2</v>
       </c>
+      <c r="B3" s="4" t="s">
+        <v>261</v>
+      </c>
       <c r="C3">
         <v>924763965</v>
       </c>
@@ -5686,6 +6516,9 @@
       <c r="A4">
         <v>3</v>
       </c>
+      <c r="B4" s="4" t="s">
+        <v>277</v>
+      </c>
       <c r="C4">
         <v>914274915</v>
       </c>
@@ -5712,6 +6545,9 @@
       <c r="A5">
         <v>4</v>
       </c>
+      <c r="B5" s="4" t="s">
+        <v>305</v>
+      </c>
       <c r="C5">
         <v>964829602</v>
       </c>
@@ -5738,6 +6574,9 @@
       <c r="A6">
         <v>5</v>
       </c>
+      <c r="B6" s="4" t="s">
+        <v>272</v>
+      </c>
       <c r="C6">
         <v>935502152</v>
       </c>
@@ -5764,6 +6603,9 @@
       <c r="A7">
         <v>6</v>
       </c>
+      <c r="B7" s="7" t="s">
+        <v>318</v>
+      </c>
       <c r="C7">
         <v>914628560</v>
       </c>
@@ -5790,6 +6632,9 @@
       <c r="A8">
         <v>7</v>
       </c>
+      <c r="B8" s="7" t="s">
+        <v>358</v>
+      </c>
       <c r="C8">
         <v>963926453</v>
       </c>
@@ -5816,6 +6661,9 @@
       <c r="A9">
         <v>8</v>
       </c>
+      <c r="B9" s="7" t="s">
+        <v>313</v>
+      </c>
       <c r="C9">
         <v>921547935</v>
       </c>
@@ -5842,6 +6690,9 @@
       <c r="A10">
         <v>9</v>
       </c>
+      <c r="B10" s="7" t="s">
+        <v>323</v>
+      </c>
       <c r="C10">
         <v>918426539</v>
       </c>
@@ -5868,6 +6719,9 @@
       <c r="A11">
         <v>10</v>
       </c>
+      <c r="B11" s="7" t="s">
+        <v>328</v>
+      </c>
       <c r="C11">
         <v>963159731</v>
       </c>
@@ -5894,6 +6748,9 @@
       <c r="A12">
         <v>11</v>
       </c>
+      <c r="B12" s="7" t="s">
+        <v>338</v>
+      </c>
       <c r="C12">
         <v>936267422</v>
       </c>
@@ -5917,6 +6774,9 @@
       <c r="A13">
         <v>12</v>
       </c>
+      <c r="B13" s="7" t="s">
+        <v>353</v>
+      </c>
       <c r="C13">
         <v>926375015</v>
       </c>
@@ -5943,6 +6803,9 @@
       <c r="A14">
         <v>13</v>
       </c>
+      <c r="B14" s="4" t="s">
+        <v>296</v>
+      </c>
       <c r="C14">
         <v>963216832</v>
       </c>
@@ -5969,6 +6832,9 @@
       <c r="A15">
         <v>14</v>
       </c>
+      <c r="B15" s="4" t="s">
+        <v>291</v>
+      </c>
       <c r="C15">
         <v>915392054</v>
       </c>
@@ -5992,6 +6858,9 @@
       <c r="A16">
         <v>15</v>
       </c>
+      <c r="B16" s="4" t="s">
+        <v>282</v>
+      </c>
       <c r="C16">
         <v>964667921</v>
       </c>
@@ -6018,6 +6887,9 @@
       <c r="A17">
         <v>16</v>
       </c>
+      <c r="B17" s="4" t="s">
+        <v>287</v>
+      </c>
       <c r="C17">
         <v>962468333</v>
       </c>
@@ -6044,6 +6916,9 @@
       <c r="A18">
         <v>17</v>
       </c>
+      <c r="B18" s="7" t="s">
+        <v>338</v>
+      </c>
       <c r="C18">
         <v>925488312</v>
       </c>
@@ -6070,6 +6945,9 @@
       <c r="A19">
         <v>18</v>
       </c>
+      <c r="B19" s="7" t="s">
+        <v>343</v>
+      </c>
       <c r="C19">
         <v>915424675</v>
       </c>
@@ -6093,6 +6971,9 @@
       <c r="A20">
         <v>19</v>
       </c>
+      <c r="B20" s="7" t="s">
+        <v>348</v>
+      </c>
       <c r="C20">
         <v>963215352</v>
       </c>
@@ -6119,6 +7000,9 @@
       <c r="A21">
         <v>20</v>
       </c>
+      <c r="B21" s="4" t="s">
+        <v>300</v>
+      </c>
       <c r="C21">
         <v>924583100</v>
       </c>
@@ -6139,6 +7023,28 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{C3713855-50A3-644C-804A-8A0EECCC906C}"/>
+    <hyperlink ref="B6" r:id="rId2" xr:uid="{21CD732D-D4ED-9544-8B38-D88BB89C5C66}"/>
+    <hyperlink ref="B7" r:id="rId3" xr:uid="{7CF2BFE4-F971-194C-877F-8DD9941F0651}"/>
+    <hyperlink ref="B8" r:id="rId4" xr:uid="{4C6C864E-3D8A-EA48-B1E1-86C6E3D1763E}"/>
+    <hyperlink ref="B4" r:id="rId5" xr:uid="{67DBA6BA-9313-2F47-960E-D80B0B3FDA19}"/>
+    <hyperlink ref="B5" r:id="rId6" xr:uid="{09EFA0C5-2E4A-1E43-AC9D-A78016C695AC}"/>
+    <hyperlink ref="B9" r:id="rId7" xr:uid="{F0FF33CB-CC1F-3D4C-8730-3A2C3C2F236F}"/>
+    <hyperlink ref="B10" r:id="rId8" xr:uid="{58B793E6-BD23-8D4E-9B95-AB877AC66F8F}"/>
+    <hyperlink ref="B11" r:id="rId9" xr:uid="{1825F598-6D17-3E42-96F5-EDA9BA30546D}"/>
+    <hyperlink ref="B12" r:id="rId10" xr:uid="{F3E853D9-D49F-1749-BB92-0340F3EE5BED}"/>
+    <hyperlink ref="B13" r:id="rId11" xr:uid="{B5D391AC-770F-3B4F-8064-EA78A9A2525A}"/>
+    <hyperlink ref="B16" r:id="rId12" xr:uid="{C33E805D-6E14-A44E-A627-6272E9159620}"/>
+    <hyperlink ref="B17" r:id="rId13" xr:uid="{B82F0048-2A55-3041-B4C7-F927255BB74C}"/>
+    <hyperlink ref="B15" r:id="rId14" xr:uid="{0772DA2B-DACC-C940-A030-E4EE78255105}"/>
+    <hyperlink ref="B18" r:id="rId15" xr:uid="{A43979B0-246D-9842-9F42-48651D9C1E89}"/>
+    <hyperlink ref="B19" r:id="rId16" xr:uid="{1162EC29-93B5-F14E-92AB-A1467E6F4923}"/>
+    <hyperlink ref="B20" r:id="rId17" xr:uid="{66FA15C4-2EF1-A54B-8612-CC1DDD732F58}"/>
+    <hyperlink ref="B14" r:id="rId18" xr:uid="{4B63B141-89D1-7540-A42B-EBEEAF2DB8CA}"/>
+    <hyperlink ref="B21" r:id="rId19" xr:uid="{93612DB7-AE9D-174B-B93F-11E95FB1C151}"/>
+    <hyperlink ref="B2" r:id="rId20" xr:uid="{24504149-7990-3B4B-B21B-5389344147B8}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
